--- a/CS/BDRP/data.xlsx
+++ b/CS/BDRP/data.xlsx
@@ -429,13 +429,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
